--- a/biology/Biologie cellulaire et moléculaire/Immunoglobuline_E/Immunoglobuline_E.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Immunoglobuline_E/Immunoglobuline_E.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’immunoglobuline E (IgE) est une classe d'anticorps (isotype) présente uniquement chez les mammifères et qui a été découverte et caractérisée en 1966 par Teruko Ishizaka et par son mari Kimishige Ishizaka — ce qui a valu à ce dernier le prix japonais de l'an 2000[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’immunoglobuline E (IgE) est une classe d'anticorps (isotype) présente uniquement chez les mammifères et qui a été découverte et caractérisée en 1966 par Teruko Ishizaka et par son mari Kimishige Ishizaka — ce qui a valu à ce dernier le prix japonais de l'an 2000. 
 Les immunoglobulines IgE sont associées aux maladies atopiques, notamment les rhinites allergiques, l'asthme et les dermatites atopiques, mais sont également impliquées dans les mécanismes de défense immunitaire face aux infections parasitaires.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les IgE sont découvertes simultanément en 1966 et 1967 par deux groupes indépendants[2] : Kimishige Ishizaka avec Teruko Ishizaka au Children's Asthma Research Institute and Hospital de Denver[3], et Gunnar Johansson avec Hans Bennich (sv) à Uppsala[4]. Leur article commun est publié en avril 1969[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les IgE sont découvertes simultanément en 1966 et 1967 par deux groupes indépendants : Kimishige Ishizaka avec Teruko Ishizaka au Children's Asthma Research Institute and Hospital de Denver, et Gunnar Johansson avec Hans Bennich (sv) à Uppsala. Leur article commun est publié en avril 1969.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Liens avec certaines allergies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les immunoglobulines de classe E (IgE) sont présentes à des niveaux peu élevés dans le plasma et sont principalement produites par les plasmocytes dans le tissu lymphoïde associé aux muqueuses.
 Les patients qui souffrent de conditions atopiques, comme l'asthme, la rhinite allergique ou la dermatite atopique, ont dans leur sérum des niveaux élevés en IgE totaux ainsi qu'en IgE spécifiques pour les antigènes responsables de ces maladies. En effet, lors de leur premier contact avec un allergène, sont produites des IgE spécifiques à l'allergène (pollen, protéines alimentaires, acariens…), grâce à l'activation de lymphocytes T et B. Cette phase (dite initiatrice) de sensibilisation est cliniquement silencieuse.
@@ -577,13 +593,11 @@
           <t>Récepteur</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe deux types de récepteurs aux IgE FcεRI (de haute affinité) et FcεRII (de faible affinité).
-FcεRI
-Les mastocytes et les basophiles sont porteurs de récepteurs FcεRI dits de haute affinité, dont la densité est de l'ordre de 2-3 × 105 molécules par cellule. Il est composé d'une chaîne α, qui capte l'IgE, d'une chaîne β et de deux chaînes γ (identiques unies par des ponts disulfures) ; ces trois dernières participant au transfert du signal de dégranulation (motifs ITAM)[6].
-FcεRII
-Il existe aussi un récepteur FcεRII (CD23) dit de faible affinité, qui se retrouve entre autres sur les lymphocytes B et pourrait jouer un rôle dans la présentation de complexes immuns contenant des anticorps IgE aux lymphocytes T. Ce récepteur est essentiellement présent sur les éosinophiles mais on a rapporté sa présence sur la membrane plasmique des macrophages alvéolaires, des plaquettes et des lymphocytes[7].
 </t>
         </is>
       </c>
@@ -609,10 +623,86 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Récepteur</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>FcεRI</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mastocytes et les basophiles sont porteurs de récepteurs FcεRI dits de haute affinité, dont la densité est de l'ordre de 2-3 × 105 molécules par cellule. Il est composé d'une chaîne α, qui capte l'IgE, d'une chaîne β et de deux chaînes γ (identiques unies par des ponts disulfures) ; ces trois dernières participant au transfert du signal de dégranulation (motifs ITAM).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Immunoglobuline_E</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Immunoglobuline_E</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Récepteur</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>FcεRII</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe aussi un récepteur FcεRII (CD23) dit de faible affinité, qui se retrouve entre autres sur les lymphocytes B et pourrait jouer un rôle dans la présentation de complexes immuns contenant des anticorps IgE aux lymphocytes T. Ce récepteur est essentiellement présent sur les éosinophiles mais on a rapporté sa présence sur la membrane plasmique des macrophages alvéolaires, des plaquettes et des lymphocytes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Immunoglobuline_E</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Immunoglobuline_E</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Dosage sérique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le taux d'IgE circulant est bas (concentration sérique &lt; 1 µg/ml) parce que :
 la demi-vie de l'IgE sérique est plus courte que celle des autres immunoglobulines (+/- 2,5 à 4 jours par rapport à 21 jours pour les IgG). En fait, le sérum est en permanence capté par les cellules endothéliales (endocytose) et la plupart des macromolécules, y compris les IgE, sont ainsi dégradées dans les endosomes. Le pH acide y favorise la digestion des Ig par les cathepsines. L'IgG échappe à ce catabolisme grâce à sa liaison au récepteur néonatal FCγRn ;
@@ -625,33 +715,35 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Immunoglobuline_E</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Immunoglobuline_E</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Cible thérapeutique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'omalizumab est un anticorps monoclonal ciblant la partie Fc de l'immunoglobuline E. Il permet d'améliorer les symptômes de l'asthme allergique[8].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'omalizumab est un anticorps monoclonal ciblant la partie Fc de l'immunoglobuline E. Il permet d'améliorer les symptômes de l'asthme allergique.
 </t>
         </is>
       </c>
